--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7b-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7b-Lrp5.xlsx
@@ -549,10 +549,10 @@
         <v>0.063261</v>
       </c>
       <c r="I2">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J2">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N2">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O2">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P2">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q2">
-        <v>0.285117790914</v>
+        <v>0.216327955239</v>
       </c>
       <c r="R2">
-        <v>2.566060118226</v>
+        <v>1.946951597151</v>
       </c>
       <c r="S2">
-        <v>0.03902036693031398</v>
+        <v>0.008075105720102328</v>
       </c>
       <c r="T2">
-        <v>0.03902036693031397</v>
+        <v>0.008075105720102328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.063261</v>
       </c>
       <c r="I3">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J3">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>14.931899</v>
       </c>
       <c r="O3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P3">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q3">
         <v>0.104956318071</v>
@@ -641,10 +641,10 @@
         <v>0.9446068626390001</v>
       </c>
       <c r="S3">
-        <v>0.01436400734467134</v>
+        <v>0.003917817110043189</v>
       </c>
       <c r="T3">
-        <v>0.01436400734467134</v>
+        <v>0.003917817110043189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.063261</v>
       </c>
       <c r="I4">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J4">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N4">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P4">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q4">
-        <v>0.111954017934</v>
+        <v>0.08710298140499999</v>
       </c>
       <c r="R4">
-        <v>1.007586161406</v>
+        <v>0.783926832645</v>
       </c>
       <c r="S4">
-        <v>0.01532169158965354</v>
+        <v>0.003251386454443212</v>
       </c>
       <c r="T4">
-        <v>0.01532169158965354</v>
+        <v>0.003251386454443212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.063261</v>
       </c>
       <c r="I5">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J5">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N5">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O5">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P5">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q5">
-        <v>0.163561350645</v>
+        <v>0.05821948489499999</v>
       </c>
       <c r="R5">
-        <v>1.472052155805</v>
+        <v>0.523975364055</v>
       </c>
       <c r="S5">
-        <v>0.02238451657936251</v>
+        <v>0.002173221186219902</v>
       </c>
       <c r="T5">
-        <v>0.02238451657936251</v>
+        <v>0.002173221186219903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.063261</v>
       </c>
       <c r="I6">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J6">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N6">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O6">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P6">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q6">
-        <v>0.04294847630699999</v>
+        <v>0.05488701490799999</v>
       </c>
       <c r="R6">
-        <v>0.3865362867629999</v>
+        <v>0.493983134172</v>
       </c>
       <c r="S6">
-        <v>0.005877799835726585</v>
+        <v>0.002048826503043783</v>
       </c>
       <c r="T6">
-        <v>0.005877799835726585</v>
+        <v>0.002048826503043784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.063261</v>
       </c>
       <c r="I7">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="J7">
-        <v>0.1188591505631911</v>
+        <v>0.02328126719340038</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N7">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P7">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q7">
-        <v>0.159953582844</v>
+        <v>0.102199495068</v>
       </c>
       <c r="R7">
-        <v>1.439582245596</v>
+        <v>0.919795455612</v>
       </c>
       <c r="S7">
-        <v>0.0218907682834631</v>
+        <v>0.003814910219547967</v>
       </c>
       <c r="T7">
-        <v>0.0218907682834631</v>
+        <v>0.003814910219547968</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H8">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I8">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J8">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.521022</v>
+        <v>10.25883033333333</v>
       </c>
       <c r="N8">
-        <v>40.563066</v>
+        <v>30.776491</v>
       </c>
       <c r="O8">
-        <v>0.3282908109760463</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="P8">
-        <v>0.3282908109760462</v>
+        <v>0.34684992242997</v>
       </c>
       <c r="Q8">
-        <v>2.113669257142667</v>
+        <v>9.075604199567557</v>
       </c>
       <c r="R8">
-        <v>19.023023314284</v>
+        <v>81.680437796108</v>
       </c>
       <c r="S8">
-        <v>0.2892704440457323</v>
+        <v>0.3387748167098676</v>
       </c>
       <c r="T8">
-        <v>0.2892704440457323</v>
+        <v>0.3387748167098677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H9">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I9">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J9">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>14.931899</v>
       </c>
       <c r="O9">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322607</v>
       </c>
       <c r="P9">
-        <v>0.1208489819808595</v>
+        <v>0.1682819529322608</v>
       </c>
       <c r="Q9">
-        <v>0.7780747112917779</v>
+        <v>4.403231195912445</v>
       </c>
       <c r="R9">
-        <v>7.002672401626</v>
+        <v>39.629080763212</v>
       </c>
       <c r="S9">
-        <v>0.1064849746361882</v>
+        <v>0.1643641358222175</v>
       </c>
       <c r="T9">
-        <v>0.1064849746361882</v>
+        <v>0.1643641358222176</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H10">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I10">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J10">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.309148666666666</v>
+        <v>4.130648333333333</v>
       </c>
       <c r="N10">
-        <v>15.927446</v>
+        <v>12.391945</v>
       </c>
       <c r="O10">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="P10">
-        <v>0.1289062854399907</v>
+        <v>0.1396567647041521</v>
       </c>
       <c r="Q10">
-        <v>0.8299508956004444</v>
+        <v>3.654230369628889</v>
       </c>
       <c r="R10">
-        <v>7.469558060404</v>
+        <v>32.88807332666</v>
       </c>
       <c r="S10">
-        <v>0.1135845938503372</v>
+        <v>0.1364053782497088</v>
       </c>
       <c r="T10">
-        <v>0.1135845938503372</v>
+        <v>0.1364053782497089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H11">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I11">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J11">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.756501666666666</v>
+        <v>2.760918333333333</v>
       </c>
       <c r="N11">
-        <v>23.269505</v>
+        <v>8.282755</v>
       </c>
       <c r="O11">
-        <v>0.1883280881051044</v>
+        <v>0.09334634443076846</v>
       </c>
       <c r="P11">
-        <v>0.1883280881051043</v>
+        <v>0.09334634443076847</v>
       </c>
       <c r="Q11">
-        <v>1.212532537541111</v>
+        <v>2.442481375215555</v>
       </c>
       <c r="R11">
-        <v>10.91279283787</v>
+        <v>21.98233237694</v>
       </c>
       <c r="S11">
-        <v>0.1659435715257419</v>
+        <v>0.09117312324454856</v>
       </c>
       <c r="T11">
-        <v>0.1659435715257418</v>
+        <v>0.09117312324454858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H12">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I12">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J12">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.036727666666666</v>
+        <v>2.602884</v>
       </c>
       <c r="N12">
-        <v>6.110182999999999</v>
+        <v>7.808651999999999</v>
       </c>
       <c r="O12">
-        <v>0.04945180752071481</v>
+        <v>0.08800322104565558</v>
       </c>
       <c r="P12">
-        <v>0.04945180752071481</v>
+        <v>0.0880032210456556</v>
       </c>
       <c r="Q12">
-        <v>0.3183907735824444</v>
+        <v>2.302674300464</v>
       </c>
       <c r="R12">
-        <v>2.865516962242</v>
+        <v>20.724068704176</v>
       </c>
       <c r="S12">
-        <v>0.04357400768498822</v>
+        <v>0.08595439454261179</v>
       </c>
       <c r="T12">
-        <v>0.04357400768498822</v>
+        <v>0.08595439454261182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1563246666666667</v>
+        <v>0.8846626666666667</v>
       </c>
       <c r="H13">
-        <v>0.468974</v>
+        <v>2.653988</v>
       </c>
       <c r="I13">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065996</v>
       </c>
       <c r="J13">
-        <v>0.8811408494368089</v>
+        <v>0.9767187328065997</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.585411999999999</v>
+        <v>4.846564</v>
       </c>
       <c r="N13">
-        <v>22.756236</v>
+        <v>14.539692</v>
       </c>
       <c r="O13">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571931</v>
       </c>
       <c r="P13">
-        <v>0.1841740259772843</v>
+        <v>0.1638617944571932</v>
       </c>
       <c r="Q13">
-        <v>1.185787002429333</v>
+        <v>4.287574232410667</v>
       </c>
       <c r="R13">
-        <v>10.672083021864</v>
+        <v>38.58816809169601</v>
       </c>
       <c r="S13">
-        <v>0.1622832576938212</v>
+        <v>0.1600468842376452</v>
       </c>
       <c r="T13">
-        <v>0.1622832576938212</v>
+        <v>0.1600468842376452</v>
       </c>
     </row>
   </sheetData>
